--- a/soma_IPI_notas.xlsx
+++ b/soma_IPI_notas.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,181 +457,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>10/11/2022</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>43221116619378000531550200000554011551277162</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>55401</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12/11/2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>43221161186888015620550020013727761061884827</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1372776</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12/11/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>43221161186888015620550020013727761061884827</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1372776</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12/11/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>43221161186888015620550020013727771010276797</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1372777</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12/11/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>43221161186888015620550020013727781038432499</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1372778</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>10/11/2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>43221178908266001287550010000846581125298470</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>84658</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>14.52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>09/11/2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>43221189735070000100550010046116221541421876</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4611622</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1403</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3.46</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A:E"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
